--- a/results/manual_perceptron_wyniki_regression_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_regression_train_test.xlsx
@@ -1045,12 +1045,24 @@
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>389.7817655388313</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.93007162409635</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-8.771690925447411</v>
+      </c>
+      <c r="J21" t="n">
+        <v>499.4125957324281</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.63449680725537</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.2745803844428267</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1071,12 +1083,24 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>3836.533938266291</v>
+      </c>
+      <c r="H22" t="n">
+        <v>38.47845186898928</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-212.5240557398844</v>
+      </c>
+      <c r="J22" t="n">
+        <v>727.7289315172026</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21.36169317435159</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.8572799909922963</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1097,12 +1121,24 @@
       <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>1062.813158560825</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.66696452435825</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-39.99774010447322</v>
+      </c>
+      <c r="J23" t="n">
+        <v>617.0781717405712</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20.03449181500787</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.5748816511423507</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1149,12 +1185,24 @@
       <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>389.7817655388313</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.93007162409635</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-8.771690925447411</v>
+      </c>
+      <c r="J25" t="n">
+        <v>499.4125957324281</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18.63449680725537</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.2745803844428267</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1536,22 +1584,22 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3836.533937617174</v>
+        <v>3836.533938266291</v>
       </c>
       <c r="H38" t="n">
-        <v>38.47845186279695</v>
+        <v>38.47845186898928</v>
       </c>
       <c r="I38" t="n">
-        <v>-212.5240572348391</v>
+        <v>-212.5240557398844</v>
       </c>
       <c r="J38" t="n">
-        <v>727.7289330524538</v>
+        <v>727.7289315172026</v>
       </c>
       <c r="K38" t="n">
-        <v>21.36169319859142</v>
+        <v>21.36169317435159</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.8572799949105019</v>
+        <v>-0.8572799909922963</v>
       </c>
     </row>
     <row r="39">
@@ -1573,12 +1621,24 @@
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1062.813158560825</v>
+      </c>
+      <c r="H39" t="n">
+        <v>19.66696452435825</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-39.99774010447322</v>
+      </c>
+      <c r="J39" t="n">
+        <v>617.0781717405712</v>
+      </c>
+      <c r="K39" t="n">
+        <v>20.03449181500787</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.5748816511423507</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1599,12 +1659,24 @@
       <c r="F40" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>622.8218209342335</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14.57033415177234</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-19.303786755732</v>
+      </c>
+      <c r="J40" t="n">
+        <v>521.391302097799</v>
+      </c>
+      <c r="K40" t="n">
+        <v>18.88281172256719</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.3306735391772326</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1651,24 +1723,12 @@
       <c r="F42" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="n">
-        <v>3836.533938266291</v>
-      </c>
-      <c r="H42" t="n">
-        <v>38.47845186898928</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-212.5240557398844</v>
-      </c>
-      <c r="J42" t="n">
-        <v>727.7289315172026</v>
-      </c>
-      <c r="K42" t="n">
-        <v>21.36169317435159</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-0.8572799909922963</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2379,7 +2439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 12:09:38</t>
+          <t>2025-11-15 21:22:00</t>
         </is>
       </c>
     </row>
